--- a/results/2030target.xlsx
+++ b/results/2030target.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView windowWidth="28800" windowHeight="12255" activeTab="2"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>year</t>
   </si>
@@ -61,9 +61,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>scn1</t>
-  </si>
-  <si>
     <t>scn2</t>
   </si>
   <si>
@@ -83,6 +80,18 @@
   </si>
   <si>
     <t>top</t>
+  </si>
+  <si>
+    <t>annual_capacity_solar_MW</t>
+  </si>
+  <si>
+    <t>annual_solarcostreduction_$/MW</t>
+  </si>
+  <si>
+    <t>annual_wind_solar_MW</t>
+  </si>
+  <si>
+    <t>annual_windcostreduction_$/MW</t>
   </si>
 </sst>
 </file>
@@ -698,13 +707,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -1018,11 +1028,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H1"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1035,19 +1045,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
@@ -1061,19 +1071,19 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>2010</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>38793000</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>0</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
         <v>0</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3">
         <v>0</v>
       </c>
       <c r="F2">
@@ -1087,19 +1097,19 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>2011</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>73745000</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>7.47583479378727</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>78.6858909583252</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
         <v>292743224.355998</v>
       </c>
       <c r="F3">
@@ -1115,19 +1125,19 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>2012</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>104015000</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>16.2929547386379</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>119.319448339718</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <v>766543276.854711</v>
       </c>
       <c r="F4">
@@ -1143,19 +1153,19 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>2013</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>139523000</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>27.7161753471964</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <v>155.706277278161</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="3">
         <v>907372148.516517</v>
       </c>
       <c r="F5">
@@ -1167,23 +1177,23 @@
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
-        <v>13792426760.5595</v>
+        <v>13792426760.5594</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>2014</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>176089000</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>43.2451710692992</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <v>188.614710356133</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="3">
         <v>2138016175.46693</v>
       </c>
       <c r="F6">
@@ -1199,19 +1209,19 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>2015</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <v>222213000</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="3">
         <v>68.8290322650159</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="3">
         <v>232.55569515878</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="3">
         <v>4603349000.59395</v>
       </c>
       <c r="F7">
@@ -1227,19 +1237,19 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>2016</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <v>296155000</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="3">
         <v>80.8072662567927</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="3">
         <v>245.250687229694</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="3">
         <v>4095424575.99435</v>
       </c>
       <c r="F8">
@@ -1251,23 +1261,23 @@
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>51100613214.7496</v>
+        <v>51100613214.7495</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>2017</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="3">
         <v>389411000</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="3">
         <v>93.9699724334955</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="3">
         <v>258.345416791641</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="3">
         <v>4453647642.40289</v>
       </c>
       <c r="F9">
@@ -1283,19 +1293,19 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="2">
+      <c r="A10" s="3">
         <v>2018</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="3">
         <v>488739000</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="3">
         <v>108.742772957637</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="3">
         <v>265.797050113923</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="3">
         <v>5446925497.44803</v>
       </c>
       <c r="F10">
@@ -1311,19 +1321,19 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <v>2019</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="3">
         <v>587134000</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="3">
         <v>129.297182565235</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="3">
         <v>278.397434765821</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="3">
         <v>7283116348.12583</v>
       </c>
       <c r="F11">
@@ -1339,19 +1349,19 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="2">
+      <c r="A12" s="3">
         <v>2020</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="3">
         <v>713970000</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="3">
         <v>191.99339172376</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="3">
         <v>325.06851329353</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="3">
         <v>21275574909.8159</v>
       </c>
       <c r="F12">
@@ -1367,19 +1377,19 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="2">
+      <c r="A13" s="3">
         <v>2021</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="3">
         <v>867482000</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="3">
         <v>199.612889529875</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="3">
         <v>309.986889446663</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="3">
         <v>18467266320.0122</v>
       </c>
       <c r="F13">
@@ -1395,19 +1405,19 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="2">
+      <c r="A14" s="3">
         <v>2022</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="3">
         <v>1066559000</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="3">
         <v>205.949631984904</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="3">
         <v>304.3372230563</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="3">
         <v>15374840256.4218</v>
       </c>
       <c r="F14">
@@ -1464,11 +1474,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1477,19 +1487,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
@@ -1503,19 +1513,19 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>2010</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>181.08267</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>0</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
         <v>0</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3">
         <v>0</v>
       </c>
       <c r="F2">
@@ -1529,19 +1539,19 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>2011</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>220.24127</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>7.64980208421366</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>78.5546328868281</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
         <v>267375882.447436</v>
       </c>
       <c r="F3">
@@ -1557,19 +1567,19 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>2012</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>267.2888</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>16.4579575970879</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>109.353855418102</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <v>498182376.463851</v>
       </c>
       <c r="F4">
@@ -1585,19 +1595,19 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>2013</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>300.0268</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>45.0321682178342</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <v>196.971893612627</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="3">
         <v>1599002229.07886</v>
       </c>
       <c r="F5">
@@ -1613,19 +1623,19 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>2014</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>349.46622</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>63.6447754731839</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <v>228.653533358064</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="3">
         <v>2327234859.95244</v>
       </c>
       <c r="F6">
@@ -1641,19 +1651,19 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>2015</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <v>416.34714</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="3">
         <v>85.6542122105884</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="3">
         <v>254.695037586523</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="3">
         <v>3950714884.00118</v>
       </c>
       <c r="F7">
@@ -1669,19 +1679,19 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>2016</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <v>467.02853</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="3">
         <v>130.699733490334</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="3">
         <v>313.705595578105</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="3">
         <v>9664199693.74224</v>
       </c>
       <c r="F8">
@@ -1697,19 +1707,19 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>2017</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="3">
         <v>514.4229</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="3">
         <v>180.798205955188</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="3">
         <v>371.446101907044</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="3">
         <v>16860517494.557</v>
       </c>
       <c r="F9">
@@ -1725,19 +1735,19 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="2">
+      <c r="A10" s="3">
         <v>2018</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="3">
         <v>564.5129</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="3">
         <v>193.382197338465</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="3">
         <v>357.392387241572</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="3">
         <v>19208266897.235</v>
       </c>
       <c r="F10">
@@ -1753,19 +1763,19 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <v>2019</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="3">
         <v>620.8414</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="3">
         <v>175.79290816524</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="3">
         <v>301.508231101932</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="3">
         <v>17297143198.9188</v>
       </c>
       <c r="F11">
@@ -1781,19 +1791,19 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="2">
+      <c r="A12" s="3">
         <v>2020</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="3">
         <v>731.6555</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="3">
         <v>171.106328785451</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="3">
         <v>264.505001339932</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="3">
         <v>21702442317.8315</v>
       </c>
       <c r="F12">
@@ -1809,19 +1819,19 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="2">
+      <c r="A13" s="3">
         <v>2021</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="3">
         <v>824.1709</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="3">
         <v>165.478105759742</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="3">
         <v>234.665557683018</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="3">
         <v>25402874971.3895</v>
       </c>
       <c r="F13">
@@ -1837,19 +1847,19 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="2">
+      <c r="A14" s="3">
         <v>2022</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="3">
         <v>898.8243</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="3">
         <v>170.320647005528</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="3">
         <v>222.966010606387</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="3">
         <v>33906923443.9195</v>
       </c>
       <c r="F14">
@@ -1906,104 +1916,113 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D7"/>
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="12.8166666666667"/>
-    <col min="3" max="3" width="12.625"/>
-    <col min="5" max="6" width="12.8166666666667"/>
+    <col min="1" max="1" width="30.8" customWidth="1"/>
+    <col min="2" max="2" width="12.625"/>
+    <col min="4" max="5" width="12.8166666666667"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>9</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="B2">
+        <f>(B8*B9+B10*B11)/1000000</f>
+        <v>354.058208772819</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>12</v>
-      </c>
-      <c r="B2">
-        <f>8172215.06752931/1000/8</f>
-        <v>1021.52688344116</v>
-      </c>
-      <c r="C2">
-        <f>4303975.46018889/1000/8</f>
-        <v>537.996932523611</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>13</v>
       </c>
       <c r="B3">
         <v>1300</v>
       </c>
-      <c r="C3">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>486</v>
       </c>
-      <c r="C4">
-        <v>486</v>
-      </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <f>B2/(B3-B4)</f>
-        <v>1.2549470312545</v>
-      </c>
-      <c r="C5">
-        <f>C2/(C3-C4)</f>
-        <v>0.660929892535149</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>0.434960944438352</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <f>B3-B4</f>
         <v>814</v>
       </c>
-      <c r="C6">
-        <f>C3-C4</f>
-        <v>814</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <f>B3+B2</f>
-        <v>2321.52688344116</v>
-      </c>
-      <c r="C7">
-        <f>C3+C2</f>
-        <v>1837.99693252361</v>
+        <v>1654.05820877282</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <f>(Solar!B15-Solar!B14)/8/1000</f>
+        <v>266639.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="2">
+        <v>878.41555411259</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <f>(Wind!B15-Wind!B14)/8*1000</f>
+        <v>224706.075</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="2">
+        <v>533.308701280667</v>
       </c>
     </row>
   </sheetData>
